--- a/Excel/WeaponsConfig.xlsx
+++ b/Excel/WeaponsConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F32D916-7DD2-47B2-8929-C439FDD6A749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB6C418-30F0-4117-BD6C-4F58EAC50065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -238,7 +238,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>Type</t>
+    <t>MaterialType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +637,7 @@
   <dimension ref="A3:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M32" sqref="M32"/>
+      <selection activeCell="F6" sqref="F6:F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -748,7 +748,7 @@
         <v>6</v>
       </c>
       <c r="F6">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G6">
         <v>1001</v>
@@ -777,7 +777,7 @@
         <v>11</v>
       </c>
       <c r="F7">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G7">
         <v>1001</v>
@@ -789,7 +789,7 @@
         <v>4</v>
       </c>
       <c r="J7" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K7" s="7"/>
     </row>
@@ -805,7 +805,7 @@
         <v>12</v>
       </c>
       <c r="F8">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G8">
         <v>1001</v>
@@ -834,7 +834,7 @@
         <v>13</v>
       </c>
       <c r="F9">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>1001</v>
@@ -862,7 +862,7 @@
         <v>14</v>
       </c>
       <c r="F10">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G10">
         <v>1001</v>
@@ -890,7 +890,7 @@
         <v>15</v>
       </c>
       <c r="F11">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G11">
         <v>1001</v>
@@ -919,7 +919,7 @@
         <v>16</v>
       </c>
       <c r="F12">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G12">
         <v>1001</v>
@@ -947,7 +947,7 @@
         <v>17</v>
       </c>
       <c r="F13">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G13">
         <v>1001</v>
@@ -974,7 +974,7 @@
         <v>18</v>
       </c>
       <c r="F14">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G14">
         <v>1001</v>
@@ -986,7 +986,7 @@
         <v>4</v>
       </c>
       <c r="J14" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K14" s="7"/>
     </row>
@@ -1001,7 +1001,7 @@
         <v>19</v>
       </c>
       <c r="F15">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G15">
         <v>1001</v>
@@ -1013,7 +1013,7 @@
         <v>4</v>
       </c>
       <c r="J15" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K15" s="7"/>
     </row>
@@ -1028,7 +1028,7 @@
         <v>20</v>
       </c>
       <c r="F16">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G16">
         <v>1001</v>
@@ -1040,7 +1040,7 @@
         <v>1</v>
       </c>
       <c r="J16" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K16" s="7"/>
     </row>
@@ -1055,7 +1055,7 @@
         <v>21</v>
       </c>
       <c r="F17">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G17">
         <v>1001</v>
@@ -1067,7 +1067,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K17" s="7"/>
     </row>
@@ -1082,7 +1082,7 @@
         <v>21</v>
       </c>
       <c r="F18">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G18">
         <v>1001</v>
@@ -1094,7 +1094,7 @@
         <v>1</v>
       </c>
       <c r="J18" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K18" s="7"/>
     </row>
@@ -1109,7 +1109,7 @@
         <v>22</v>
       </c>
       <c r="F19">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G19">
         <v>1002</v>
@@ -1121,7 +1121,7 @@
         <v>4</v>
       </c>
       <c r="J19" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K19" s="7"/>
     </row>
@@ -1136,7 +1136,7 @@
         <v>23</v>
       </c>
       <c r="F20">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G20">
         <v>1002</v>
@@ -1148,7 +1148,7 @@
         <v>4</v>
       </c>
       <c r="J20" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K20" s="7"/>
     </row>
@@ -1163,7 +1163,7 @@
         <v>24</v>
       </c>
       <c r="F21">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G21">
         <v>1002</v>
@@ -1175,7 +1175,7 @@
         <v>4</v>
       </c>
       <c r="J21" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K21" s="7"/>
     </row>
@@ -1190,7 +1190,7 @@
         <v>25</v>
       </c>
       <c r="F22">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G22">
         <v>1002</v>
@@ -1202,7 +1202,7 @@
         <v>4</v>
       </c>
       <c r="J22" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K22" s="7"/>
     </row>
@@ -1217,7 +1217,7 @@
         <v>26</v>
       </c>
       <c r="F23">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G23">
         <v>1002</v>
@@ -1229,7 +1229,7 @@
         <v>2</v>
       </c>
       <c r="J23" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K23" s="7"/>
     </row>
@@ -1244,7 +1244,7 @@
         <v>27</v>
       </c>
       <c r="F24">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G24">
         <v>1002</v>
@@ -1256,7 +1256,7 @@
         <v>2</v>
       </c>
       <c r="J24" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K24" s="7"/>
     </row>
@@ -1271,7 +1271,7 @@
         <v>28</v>
       </c>
       <c r="F25">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G25">
         <v>1002</v>
@@ -1283,7 +1283,7 @@
         <v>2</v>
       </c>
       <c r="J25" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K25" s="7"/>
     </row>
@@ -1298,7 +1298,7 @@
         <v>29</v>
       </c>
       <c r="F26">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G26">
         <v>1002</v>
@@ -1310,7 +1310,7 @@
         <v>2</v>
       </c>
       <c r="J26" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K26" s="7"/>
     </row>
@@ -1325,7 +1325,7 @@
         <v>30</v>
       </c>
       <c r="F27">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G27">
         <v>1002</v>
@@ -1337,7 +1337,7 @@
         <v>2</v>
       </c>
       <c r="J27" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K27" s="7"/>
     </row>
@@ -1352,7 +1352,7 @@
         <v>31</v>
       </c>
       <c r="F28">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G28">
         <v>1002</v>
@@ -1364,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="J28" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K28" s="7"/>
     </row>
@@ -1379,7 +1379,7 @@
         <v>31</v>
       </c>
       <c r="F29">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G29">
         <v>1002</v>
@@ -1391,7 +1391,7 @@
         <v>2</v>
       </c>
       <c r="J29" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K29" s="7"/>
     </row>

--- a/Excel/WeaponsConfig.xlsx
+++ b/Excel/WeaponsConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CB6C418-30F0-4117-BD6C-4F58EAC50065}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137718C9-94F0-446C-A901-90A7B51A361E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
   <si>
     <t>技能的序号</t>
   </si>
@@ -80,165 +80,118 @@
     <t>3s_accessory_03</t>
   </si>
   <si>
+    <t>3s_equip_02</t>
+  </si>
+  <si>
+    <t>3s_equip_03</t>
+  </si>
+  <si>
+    <t>3s_ring_02</t>
+  </si>
+  <si>
+    <t>3s_ring_03</t>
+  </si>
+  <si>
+    <t>3s_ring_04</t>
+  </si>
+  <si>
+    <t>3s_weapon_01</t>
+  </si>
+  <si>
+    <t>3s_weapon_02</t>
+  </si>
+  <si>
+    <t>4s_accessory_01</t>
+  </si>
+  <si>
+    <t>4s_accessory_02</t>
+  </si>
+  <si>
+    <t>4s_accessory_03</t>
+  </si>
+  <si>
+    <t>4s_accessory_04</t>
+  </si>
+  <si>
+    <t>4s_equip_01</t>
+  </si>
+  <si>
+    <t>4s_equip_02</t>
+  </si>
+  <si>
+    <t>4s_equip_03</t>
+  </si>
+  <si>
+    <t>4s_equip_04</t>
+  </si>
+  <si>
+    <t>4s_equip_05</t>
+  </si>
+  <si>
+    <t>4s_equip_06</t>
+  </si>
+  <si>
+    <t>货币类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoneyType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialType</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#装备类型 1武器2护甲3戒指4饰品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>#材料类型1装备2材料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>腰带</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>护甲</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>戒指</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>武器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>3s_equip_01</t>
-  </si>
-  <si>
-    <t>3s_equip_02</t>
-  </si>
-  <si>
-    <t>3s_equip_03</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>3s_ring_01</t>
-  </si>
-  <si>
-    <t>3s_ring_02</t>
-  </si>
-  <si>
-    <t>3s_ring_03</t>
-  </si>
-  <si>
-    <t>3s_ring_04</t>
-  </si>
-  <si>
-    <t>3s_weapon_01</t>
-  </si>
-  <si>
-    <t>3s_weapon_02</t>
-  </si>
-  <si>
-    <t>4s_accessory_01</t>
-  </si>
-  <si>
-    <t>4s_accessory_02</t>
-  </si>
-  <si>
-    <t>4s_accessory_03</t>
-  </si>
-  <si>
-    <t>4s_accessory_04</t>
-  </si>
-  <si>
-    <t>4s_equip_01</t>
-  </si>
-  <si>
-    <t>4s_equip_02</t>
-  </si>
-  <si>
-    <t>4s_equip_03</t>
-  </si>
-  <si>
-    <t>4s_equip_04</t>
-  </si>
-  <si>
-    <t>4s_equip_05</t>
-  </si>
-  <si>
-    <t>4s_equip_06</t>
-  </si>
-  <si>
-    <t>货币类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MoneyType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备名称</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备1</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>装备2</t>
-  </si>
-  <si>
-    <t>装备3</t>
-  </si>
-  <si>
-    <t>装备4</t>
-  </si>
-  <si>
-    <t>装备5</t>
-  </si>
-  <si>
-    <t>装备6</t>
-  </si>
-  <si>
-    <t>装备7</t>
-  </si>
-  <si>
-    <t>装备8</t>
-  </si>
-  <si>
-    <t>装备9</t>
-  </si>
-  <si>
-    <t>装备10</t>
-  </si>
-  <si>
-    <t>装备11</t>
-  </si>
-  <si>
-    <t>装备12</t>
-  </si>
-  <si>
-    <t>装备13</t>
-  </si>
-  <si>
-    <t>装备14</t>
-  </si>
-  <si>
-    <t>装备15</t>
-  </si>
-  <si>
-    <t>装备16</t>
-  </si>
-  <si>
-    <t>装备17</t>
-  </si>
-  <si>
-    <t>装备18</t>
-  </si>
-  <si>
-    <t>装备19</t>
-  </si>
-  <si>
-    <t>装备20</t>
-  </si>
-  <si>
-    <t>装备21</t>
-  </si>
-  <si>
-    <t>装备22</t>
-  </si>
-  <si>
-    <t>装备23</t>
-  </si>
-  <si>
-    <t>装备24</t>
-  </si>
-  <si>
-    <t>装备类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WeaponType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>材料类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MaterialType</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -637,7 +590,7 @@
   <dimension ref="A3:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6:F29"/>
+      <selection activeCell="I12" sqref="I12:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -667,16 +620,16 @@
         <v>7</v>
       </c>
       <c r="G3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>60</v>
-      </c>
       <c r="J3" s="4" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -695,21 +648,24 @@
         <v>8</v>
       </c>
       <c r="G4" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="J4" s="4" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
     </row>
     <row r="5" spans="1:14" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
       <c r="C5" s="4" t="s">
         <v>5</v>
       </c>
@@ -738,13 +694,16 @@
       <c r="L5" s="4"/>
     </row>
     <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="C6">
         <v>1000001</v>
       </c>
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="F6">
@@ -754,7 +713,7 @@
         <v>1001</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I6" s="5">
         <v>4</v>
@@ -783,7 +742,7 @@
         <v>1001</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="I7" s="5">
         <v>4</v>
@@ -811,7 +770,7 @@
         <v>1001</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I8" s="5">
         <v>4</v>
@@ -830,8 +789,8 @@
       <c r="D9">
         <v>3</v>
       </c>
-      <c r="E9" t="s">
-        <v>13</v>
+      <c r="E9" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="F9">
         <v>10</v>
@@ -840,7 +799,7 @@
         <v>1001</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="I9" s="5">
         <v>2</v>
@@ -859,7 +818,7 @@
         <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -868,7 +827,7 @@
         <v>1001</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I10" s="5">
         <v>2</v>
@@ -887,7 +846,7 @@
         <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11">
         <v>10</v>
@@ -915,8 +874,8 @@
       <c r="D12">
         <v>3</v>
       </c>
-      <c r="E12" t="s">
-        <v>16</v>
+      <c r="E12" s="6" t="s">
+        <v>45</v>
       </c>
       <c r="F12">
         <v>10</v>
@@ -928,7 +887,7 @@
         <v>42</v>
       </c>
       <c r="I12" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J12" s="5">
         <v>1</v>
@@ -944,7 +903,7 @@
         <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -953,10 +912,10 @@
         <v>1001</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J13" s="5">
         <v>1</v>
@@ -971,7 +930,7 @@
         <v>3</v>
       </c>
       <c r="E14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F14">
         <v>10</v>
@@ -980,10 +939,10 @@
         <v>1001</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I14" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J14" s="5">
         <v>1</v>
@@ -998,7 +957,7 @@
         <v>3</v>
       </c>
       <c r="E15" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F15">
         <v>10</v>
@@ -1007,10 +966,10 @@
         <v>1001</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I15" s="5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" s="5">
         <v>1</v>
@@ -1025,7 +984,7 @@
         <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F16">
         <v>10</v>
@@ -1034,7 +993,7 @@
         <v>1001</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="I16" s="5">
         <v>1</v>
@@ -1052,7 +1011,7 @@
         <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F17">
         <v>10</v>
@@ -1061,7 +1020,7 @@
         <v>1001</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="I17" s="5">
         <v>1</v>
@@ -1079,7 +1038,7 @@
         <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -1088,7 +1047,7 @@
         <v>1001</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="I18" s="5">
         <v>1</v>
@@ -1106,7 +1065,7 @@
         <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F19">
         <v>10</v>
@@ -1115,7 +1074,7 @@
         <v>1002</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I19" s="5">
         <v>4</v>
@@ -1133,7 +1092,7 @@
         <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F20">
         <v>10</v>
@@ -1142,7 +1101,7 @@
         <v>1002</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="I20" s="5">
         <v>4</v>
@@ -1160,7 +1119,7 @@
         <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F21">
         <v>10</v>
@@ -1169,7 +1128,7 @@
         <v>1002</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I21" s="5">
         <v>4</v>
@@ -1187,7 +1146,7 @@
         <v>3</v>
       </c>
       <c r="E22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F22">
         <v>10</v>
@@ -1196,7 +1155,7 @@
         <v>1002</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="I22" s="5">
         <v>4</v>
@@ -1214,7 +1173,7 @@
         <v>3</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F23">
         <v>10</v>
@@ -1223,7 +1182,7 @@
         <v>1002</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="I23" s="5">
         <v>2</v>
@@ -1241,7 +1200,7 @@
         <v>3</v>
       </c>
       <c r="E24" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -1250,7 +1209,7 @@
         <v>1002</v>
       </c>
       <c r="H24" s="5" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="I24" s="5">
         <v>2</v>
@@ -1268,7 +1227,7 @@
         <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F25">
         <v>10</v>
@@ -1277,7 +1236,7 @@
         <v>1002</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="I25" s="5">
         <v>2</v>
@@ -1295,7 +1254,7 @@
         <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F26">
         <v>10</v>
@@ -1304,7 +1263,7 @@
         <v>1002</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I26" s="5">
         <v>2</v>
@@ -1322,7 +1281,7 @@
         <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F27">
         <v>10</v>
@@ -1331,7 +1290,7 @@
         <v>1002</v>
       </c>
       <c r="H27" s="5" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="I27" s="5">
         <v>2</v>
@@ -1349,7 +1308,7 @@
         <v>3</v>
       </c>
       <c r="E28" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F28">
         <v>10</v>
@@ -1358,7 +1317,7 @@
         <v>1002</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="I28" s="5">
         <v>2</v>
@@ -1376,7 +1335,7 @@
         <v>3</v>
       </c>
       <c r="E29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F29">
         <v>10</v>
@@ -1385,7 +1344,7 @@
         <v>1002</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="I29" s="5">
         <v>2</v>

--- a/Excel/WeaponsConfig.xlsx
+++ b/Excel/WeaponsConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{137718C9-94F0-446C-A901-90A7B51A361E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F359D39E-EECF-4E48-A29E-332051D2E434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9480" yWindow="3510" windowWidth="20710" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponConfig" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>技能的序号</t>
   </si>
@@ -192,6 +192,18 @@
   </si>
   <si>
     <t>3s_ring_01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础防御力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseDefence</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>装备</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -587,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:N33"/>
+  <dimension ref="A3:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12:I15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -598,15 +610,15 @@
     <col min="1" max="1" width="48.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.6328125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="20.1796875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="15.36328125" style="3" customWidth="1"/>
-    <col min="7" max="8" width="13.08984375" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.54296875" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="5" max="7" width="20.1796875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="15.36328125" style="3" customWidth="1"/>
+    <col min="9" max="10" width="13.08984375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="18" style="2" customWidth="1"/>
+    <col min="12" max="12" width="19.54296875" style="2" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -617,24 +629,30 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="I3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="J3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="K3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+    </row>
+    <row r="4" spans="1:16" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
@@ -644,25 +662,29 @@
       <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="I4" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="K4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="L4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:14" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:16" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>38</v>
       </c>
@@ -675,25 +697,29 @@
       <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="F5" s="4"/>
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:14" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="L5" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
@@ -706,25 +732,29 @@
       <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F6">
-        <v>10</v>
-      </c>
-      <c r="G6">
+      <c r="F6" s="6"/>
+      <c r="G6" s="6">
+        <v>100</v>
+      </c>
+      <c r="H6">
+        <v>10</v>
+      </c>
+      <c r="I6">
         <v>1001</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="J6" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="5">
+      <c r="K6" s="5">
         <v>4</v>
       </c>
-      <c r="J6" s="5">
-        <v>1</v>
-      </c>
-      <c r="K6" s="7"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:14" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="7"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="1:16" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A7" s="6"/>
       <c r="C7">
         <v>1000002</v>
@@ -735,24 +765,27 @@
       <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
+      <c r="G7" s="6">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
         <v>1001</v>
       </c>
-      <c r="H7" s="5" t="s">
+      <c r="J7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I7" s="5">
+      <c r="K7" s="5">
         <v>4</v>
       </c>
-      <c r="J7" s="5">
+      <c r="L7" s="5">
         <v>2</v>
       </c>
-      <c r="K7" s="7"/>
-    </row>
-    <row r="8" spans="1:14" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:16" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A8" s="6"/>
       <c r="C8">
         <v>1000003</v>
@@ -763,25 +796,29 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="F8">
-        <v>10</v>
-      </c>
-      <c r="G8">
+      <c r="F8"/>
+      <c r="G8" s="6">
+        <v>100</v>
+      </c>
+      <c r="H8">
+        <v>10</v>
+      </c>
+      <c r="I8">
         <v>1001</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I8" s="5">
+      <c r="K8" s="5">
         <v>4</v>
       </c>
-      <c r="J8" s="5">
-        <v>1</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8"/>
-    </row>
-    <row r="9" spans="1:14" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="7"/>
+      <c r="N8"/>
+    </row>
+    <row r="9" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
       <c r="A9" s="6"/>
       <c r="C9">
         <v>1000004</v>
@@ -792,25 +829,29 @@
       <c r="E9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F9">
-        <v>10</v>
-      </c>
-      <c r="G9">
+      <c r="F9" s="6"/>
+      <c r="G9" s="6">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>10</v>
+      </c>
+      <c r="I9">
         <v>1001</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="5">
+      <c r="K9" s="5">
         <v>2</v>
       </c>
-      <c r="J9" s="5">
-        <v>1</v>
-      </c>
-      <c r="K9" s="7"/>
-      <c r="L9"/>
-    </row>
-    <row r="10" spans="1:14" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="7"/>
+      <c r="N9"/>
+    </row>
+    <row r="10" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C10">
         <v>1000005</v>
       </c>
@@ -820,25 +861,29 @@
       <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="F10">
-        <v>10</v>
-      </c>
-      <c r="G10">
+      <c r="F10"/>
+      <c r="G10" s="6">
+        <v>100</v>
+      </c>
+      <c r="H10">
+        <v>10</v>
+      </c>
+      <c r="I10">
         <v>1001</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="J10" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I10" s="5">
+      <c r="K10" s="5">
         <v>2</v>
       </c>
-      <c r="J10" s="5">
-        <v>1</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="7"/>
+      <c r="N10"/>
+    </row>
+    <row r="11" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C11">
         <v>1000006</v>
       </c>
@@ -848,26 +893,30 @@
       <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="F11">
-        <v>10</v>
-      </c>
-      <c r="G11">
+      <c r="F11"/>
+      <c r="G11" s="6">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>10</v>
+      </c>
+      <c r="I11">
         <v>1001</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="J11" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I11" s="5">
+      <c r="K11" s="5">
         <v>2</v>
       </c>
-      <c r="J11" s="5">
-        <v>1</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11"/>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11" s="7"/>
       <c r="N11"/>
-    </row>
-    <row r="12" spans="1:14" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="P11"/>
+    </row>
+    <row r="12" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C12">
         <v>1000007</v>
       </c>
@@ -877,25 +926,29 @@
       <c r="E12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F12">
-        <v>10</v>
-      </c>
-      <c r="G12">
+      <c r="F12" s="6"/>
+      <c r="G12" s="6">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>10</v>
+      </c>
+      <c r="I12">
         <v>1001</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="J12" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I12" s="5">
-        <v>3</v>
-      </c>
-      <c r="J12" s="5">
-        <v>1</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12"/>
-    </row>
-    <row r="13" spans="1:14" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K12" s="5">
+        <v>3</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="7"/>
+      <c r="N12"/>
+    </row>
+    <row r="13" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C13">
         <v>1000008</v>
       </c>
@@ -905,24 +958,28 @@
       <c r="E13" t="s">
         <v>15</v>
       </c>
-      <c r="F13">
-        <v>10</v>
-      </c>
-      <c r="G13">
+      <c r="F13"/>
+      <c r="G13" s="6">
+        <v>100</v>
+      </c>
+      <c r="H13">
+        <v>10</v>
+      </c>
+      <c r="I13">
         <v>1001</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="J13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I13" s="5">
-        <v>3</v>
-      </c>
-      <c r="J13" s="5">
-        <v>1</v>
-      </c>
-      <c r="K13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K13" s="5">
+        <v>3</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C14">
         <v>1000009</v>
       </c>
@@ -932,24 +989,28 @@
       <c r="E14" t="s">
         <v>16</v>
       </c>
-      <c r="F14">
-        <v>10</v>
-      </c>
-      <c r="G14">
+      <c r="F14"/>
+      <c r="G14" s="6">
+        <v>100</v>
+      </c>
+      <c r="H14">
+        <v>10</v>
+      </c>
+      <c r="I14">
         <v>1001</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="J14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I14" s="5">
-        <v>3</v>
-      </c>
-      <c r="J14" s="5">
-        <v>1</v>
-      </c>
-      <c r="K14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K14" s="5">
+        <v>3</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C15">
         <v>1000010</v>
       </c>
@@ -959,24 +1020,28 @@
       <c r="E15" t="s">
         <v>17</v>
       </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15">
+      <c r="F15"/>
+      <c r="G15" s="6">
+        <v>100</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15">
         <v>1001</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="I15" s="5">
-        <v>3</v>
-      </c>
-      <c r="J15" s="5">
-        <v>1</v>
-      </c>
-      <c r="K15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K15" s="5">
+        <v>3</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="7"/>
+    </row>
+    <row r="16" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C16">
         <v>1000011</v>
       </c>
@@ -986,24 +1051,28 @@
       <c r="E16" t="s">
         <v>18</v>
       </c>
-      <c r="F16">
-        <v>10</v>
-      </c>
-      <c r="G16">
+      <c r="F16"/>
+      <c r="G16" s="6">
+        <v>100</v>
+      </c>
+      <c r="H16">
+        <v>10</v>
+      </c>
+      <c r="I16">
         <v>1001</v>
       </c>
-      <c r="H16" s="5" t="s">
+      <c r="J16" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5">
-        <v>1</v>
-      </c>
-      <c r="K16" s="7"/>
-    </row>
-    <row r="17" spans="3:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="7"/>
+    </row>
+    <row r="17" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C17">
         <v>1000012</v>
       </c>
@@ -1013,24 +1082,28 @@
       <c r="E17" t="s">
         <v>19</v>
       </c>
-      <c r="F17">
-        <v>10</v>
-      </c>
-      <c r="G17">
+      <c r="F17"/>
+      <c r="G17" s="6">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>10</v>
+      </c>
+      <c r="I17">
         <v>1001</v>
       </c>
-      <c r="H17" s="5" t="s">
+      <c r="J17" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5">
-        <v>1</v>
-      </c>
-      <c r="K17" s="7"/>
-    </row>
-    <row r="18" spans="3:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
+      <c r="M17" s="7"/>
+    </row>
+    <row r="18" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C18">
         <v>1000013</v>
       </c>
@@ -1040,24 +1113,28 @@
       <c r="E18" t="s">
         <v>19</v>
       </c>
-      <c r="F18">
-        <v>10</v>
-      </c>
-      <c r="G18">
+      <c r="F18"/>
+      <c r="G18" s="6">
+        <v>100</v>
+      </c>
+      <c r="H18">
+        <v>10</v>
+      </c>
+      <c r="I18">
         <v>1001</v>
       </c>
-      <c r="H18" s="5" t="s">
+      <c r="J18" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="I18" s="5">
-        <v>1</v>
-      </c>
-      <c r="J18" s="5">
-        <v>1</v>
-      </c>
-      <c r="K18" s="7"/>
-    </row>
-    <row r="19" spans="3:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1</v>
+      </c>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C19">
         <v>1000014</v>
       </c>
@@ -1067,24 +1144,28 @@
       <c r="E19" t="s">
         <v>20</v>
       </c>
-      <c r="F19">
-        <v>10</v>
-      </c>
-      <c r="G19">
+      <c r="F19"/>
+      <c r="G19" s="6">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>10</v>
+      </c>
+      <c r="I19">
         <v>1002</v>
       </c>
-      <c r="H19" s="5" t="s">
+      <c r="J19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I19" s="5">
+      <c r="K19" s="5">
         <v>4</v>
       </c>
-      <c r="J19" s="5">
-        <v>1</v>
-      </c>
-      <c r="K19" s="7"/>
-    </row>
-    <row r="20" spans="3:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="L19" s="5">
+        <v>1</v>
+      </c>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C20">
         <v>1000015</v>
       </c>
@@ -1094,24 +1175,28 @@
       <c r="E20" t="s">
         <v>21</v>
       </c>
-      <c r="F20">
-        <v>10</v>
-      </c>
-      <c r="G20">
+      <c r="F20"/>
+      <c r="G20" s="6">
+        <v>100</v>
+      </c>
+      <c r="H20">
+        <v>10</v>
+      </c>
+      <c r="I20">
         <v>1002</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I20" s="5">
+      <c r="K20" s="5">
         <v>4</v>
       </c>
-      <c r="J20" s="5">
-        <v>1</v>
-      </c>
-      <c r="K20" s="7"/>
-    </row>
-    <row r="21" spans="3:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="L20" s="5">
+        <v>1</v>
+      </c>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C21">
         <v>1000016</v>
       </c>
@@ -1121,24 +1206,28 @@
       <c r="E21" t="s">
         <v>22</v>
       </c>
-      <c r="F21">
-        <v>10</v>
-      </c>
-      <c r="G21">
+      <c r="F21"/>
+      <c r="G21" s="6">
+        <v>100</v>
+      </c>
+      <c r="H21">
+        <v>10</v>
+      </c>
+      <c r="I21">
         <v>1002</v>
       </c>
-      <c r="H21" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I21" s="5">
+      <c r="K21" s="5">
         <v>4</v>
       </c>
-      <c r="J21" s="5">
-        <v>1</v>
-      </c>
-      <c r="K21" s="7"/>
-    </row>
-    <row r="22" spans="3:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="L21" s="5">
+        <v>1</v>
+      </c>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C22">
         <v>1000017</v>
       </c>
@@ -1148,24 +1237,28 @@
       <c r="E22" t="s">
         <v>23</v>
       </c>
-      <c r="F22">
-        <v>10</v>
-      </c>
-      <c r="G22">
+      <c r="F22"/>
+      <c r="G22" s="6">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>10</v>
+      </c>
+      <c r="I22">
         <v>1002</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="J22" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="I22" s="5">
+      <c r="K22" s="5">
         <v>4</v>
       </c>
-      <c r="J22" s="5">
-        <v>1</v>
-      </c>
-      <c r="K22" s="7"/>
-    </row>
-    <row r="23" spans="3:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="L22" s="5">
+        <v>1</v>
+      </c>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C23">
         <v>1000018</v>
       </c>
@@ -1175,24 +1268,28 @@
       <c r="E23" t="s">
         <v>24</v>
       </c>
-      <c r="F23">
-        <v>10</v>
-      </c>
-      <c r="G23">
+      <c r="F23"/>
+      <c r="G23" s="6">
+        <v>100</v>
+      </c>
+      <c r="H23">
+        <v>10</v>
+      </c>
+      <c r="I23">
         <v>1002</v>
       </c>
-      <c r="H23" s="5" t="s">
+      <c r="J23" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="5">
+      <c r="K23" s="5">
         <v>2</v>
       </c>
-      <c r="J23" s="5">
-        <v>1</v>
-      </c>
-      <c r="K23" s="7"/>
-    </row>
-    <row r="24" spans="3:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="L23" s="5">
+        <v>1</v>
+      </c>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C24">
         <v>1000019</v>
       </c>
@@ -1202,24 +1299,28 @@
       <c r="E24" t="s">
         <v>25</v>
       </c>
-      <c r="F24">
-        <v>10</v>
-      </c>
-      <c r="G24">
+      <c r="F24"/>
+      <c r="G24" s="6">
+        <v>100</v>
+      </c>
+      <c r="H24">
+        <v>10</v>
+      </c>
+      <c r="I24">
         <v>1002</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="J24" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I24" s="5">
+      <c r="K24" s="5">
         <v>2</v>
       </c>
-      <c r="J24" s="5">
-        <v>1</v>
-      </c>
-      <c r="K24" s="7"/>
-    </row>
-    <row r="25" spans="3:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="L24" s="5">
+        <v>1</v>
+      </c>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C25">
         <v>1000020</v>
       </c>
@@ -1229,24 +1330,28 @@
       <c r="E25" t="s">
         <v>26</v>
       </c>
-      <c r="F25">
-        <v>10</v>
-      </c>
-      <c r="G25">
+      <c r="F25"/>
+      <c r="G25" s="6">
+        <v>100</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25">
         <v>1002</v>
       </c>
-      <c r="H25" s="5" t="s">
+      <c r="J25" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I25" s="5">
+      <c r="K25" s="5">
         <v>2</v>
       </c>
-      <c r="J25" s="5">
-        <v>1</v>
-      </c>
-      <c r="K25" s="7"/>
-    </row>
-    <row r="26" spans="3:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="L25" s="5">
+        <v>1</v>
+      </c>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C26">
         <v>1000021</v>
       </c>
@@ -1256,24 +1361,28 @@
       <c r="E26" t="s">
         <v>27</v>
       </c>
-      <c r="F26">
-        <v>10</v>
-      </c>
-      <c r="G26">
+      <c r="F26"/>
+      <c r="G26" s="6">
+        <v>100</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26">
         <v>1002</v>
       </c>
-      <c r="H26" s="5" t="s">
+      <c r="J26" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I26" s="5">
+      <c r="K26" s="5">
         <v>2</v>
       </c>
-      <c r="J26" s="5">
-        <v>1</v>
-      </c>
-      <c r="K26" s="7"/>
-    </row>
-    <row r="27" spans="3:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="L26" s="5">
+        <v>1</v>
+      </c>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C27">
         <v>1000022</v>
       </c>
@@ -1283,24 +1392,28 @@
       <c r="E27" t="s">
         <v>28</v>
       </c>
-      <c r="F27">
-        <v>10</v>
-      </c>
-      <c r="G27">
+      <c r="F27"/>
+      <c r="G27" s="6">
+        <v>100</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27">
         <v>1002</v>
       </c>
-      <c r="H27" s="5" t="s">
+      <c r="J27" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I27" s="5">
+      <c r="K27" s="5">
         <v>2</v>
       </c>
-      <c r="J27" s="5">
-        <v>1</v>
-      </c>
-      <c r="K27" s="7"/>
-    </row>
-    <row r="28" spans="3:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="L27" s="5">
+        <v>1</v>
+      </c>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C28">
         <v>1000023</v>
       </c>
@@ -1310,24 +1423,28 @@
       <c r="E28" t="s">
         <v>29</v>
       </c>
-      <c r="F28">
-        <v>10</v>
-      </c>
-      <c r="G28">
+      <c r="F28"/>
+      <c r="G28" s="6">
+        <v>100</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28">
         <v>1002</v>
       </c>
-      <c r="H28" s="5" t="s">
+      <c r="J28" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I28" s="5">
+      <c r="K28" s="5">
         <v>2</v>
       </c>
-      <c r="J28" s="5">
-        <v>1</v>
-      </c>
-      <c r="K28" s="7"/>
-    </row>
-    <row r="29" spans="3:11" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="L28" s="5">
+        <v>1</v>
+      </c>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
       <c r="C29">
         <v>1000024</v>
       </c>
@@ -1337,35 +1454,41 @@
       <c r="E29" t="s">
         <v>29</v>
       </c>
-      <c r="F29">
-        <v>10</v>
-      </c>
-      <c r="G29">
+      <c r="F29"/>
+      <c r="G29" s="6">
+        <v>100</v>
+      </c>
+      <c r="H29">
+        <v>10</v>
+      </c>
+      <c r="I29">
         <v>1002</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="J29" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="I29" s="5">
+      <c r="K29" s="5">
         <v>2</v>
       </c>
-      <c r="J29" s="5">
-        <v>1</v>
-      </c>
-      <c r="K29" s="7"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="L29" s="5">
+        <v>1</v>
+      </c>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
       <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.35">
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.35">
+    <row r="32" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
     </row>

--- a/Excel/WeaponsConfig.xlsx
+++ b/Excel/WeaponsConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F359D39E-EECF-4E48-A29E-332051D2E434}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B462D842-8D32-4CEC-9C26-C63323A66235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="3510" windowWidth="20710" windowHeight="15000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponConfig" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="54">
   <si>
     <t>技能的序号</t>
   </si>
@@ -203,7 +203,26 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>装备</t>
+    <t>装备类型名称</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponTypeName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>饰品</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>描述</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>传说中可以射落太阳的弓箭</t>
+  </si>
+  <si>
+    <t>WeaponDes</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -276,7 +295,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -292,9 +311,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -599,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A3:P33"/>
+  <dimension ref="A3:O33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -610,15 +626,17 @@
     <col min="1" max="1" width="48.36328125" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.7265625" style="2" customWidth="1"/>
     <col min="3" max="4" width="12.6328125" style="3" customWidth="1"/>
-    <col min="5" max="7" width="20.1796875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="15.36328125" style="3" customWidth="1"/>
-    <col min="9" max="10" width="13.08984375" style="3" customWidth="1"/>
-    <col min="11" max="11" width="18" style="2" customWidth="1"/>
-    <col min="12" max="12" width="19.54296875" style="2" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="5" max="6" width="20.1796875" style="3" customWidth="1"/>
+    <col min="7" max="7" width="15.36328125" style="3" customWidth="1"/>
+    <col min="8" max="9" width="13.08984375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="18" style="2" customWidth="1"/>
+    <col min="11" max="11" width="19.54296875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="18.81640625" style="2" customWidth="1"/>
+    <col min="13" max="13" width="26.1796875" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:16" ht="13.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:15" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
@@ -629,30 +647,31 @@
         <v>9</v>
       </c>
       <c r="F3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:16" ht="13.5" x14ac:dyDescent="0.4">
+      <c r="M3" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="13.5" x14ac:dyDescent="0.4">
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
@@ -662,29 +681,32 @@
       <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="4"/>
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
       <c r="G4" s="4" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:16" ht="13.5" x14ac:dyDescent="0.4">
+        <v>49</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="13.5" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
         <v>38</v>
       </c>
@@ -697,7 +719,9 @@
       <c r="E5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="4"/>
+      <c r="F5" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="G5" s="4" t="s">
         <v>5</v>
       </c>
@@ -705,21 +729,22 @@
         <v>5</v>
       </c>
       <c r="I5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4" t="s">
         <v>5</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>2</v>
       </c>
       <c r="K5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
+        <v>2</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>39</v>
       </c>
@@ -732,29 +757,32 @@
       <c r="E6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6">
-        <v>100</v>
+      <c r="F6" s="6">
+        <v>100</v>
+      </c>
+      <c r="G6">
+        <v>10</v>
       </c>
       <c r="H6">
-        <v>10</v>
-      </c>
-      <c r="I6">
         <v>1001</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="I6" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="J6" s="5">
+        <v>4</v>
+      </c>
       <c r="K6" s="5">
-        <v>4</v>
-      </c>
-      <c r="L6" s="5">
-        <v>1</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="5"/>
-    </row>
-    <row r="7" spans="1:16" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="C7">
         <v>1000002</v>
@@ -765,27 +793,32 @@
       <c r="E7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="6">
-        <v>100</v>
+      <c r="F7" s="6">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>10</v>
       </c>
       <c r="H7">
-        <v>10</v>
-      </c>
-      <c r="I7">
         <v>1001</v>
       </c>
-      <c r="J7" s="5" t="s">
+      <c r="I7" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="J7" s="5">
+        <v>4</v>
+      </c>
       <c r="K7" s="5">
-        <v>4</v>
-      </c>
-      <c r="L7" s="5">
         <v>2</v>
       </c>
-      <c r="M7" s="7"/>
-    </row>
-    <row r="8" spans="1:16" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="L7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="1" customFormat="1" ht="14" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="C8">
         <v>1000003</v>
@@ -796,29 +829,32 @@
       <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="F8"/>
-      <c r="G8" s="6">
-        <v>100</v>
+      <c r="F8" s="6">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
       </c>
       <c r="H8">
-        <v>10</v>
-      </c>
-      <c r="I8">
         <v>1001</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="J8" s="5">
+        <v>4</v>
+      </c>
       <c r="K8" s="5">
-        <v>4</v>
-      </c>
-      <c r="L8" s="5">
-        <v>1</v>
-      </c>
-      <c r="M8" s="7"/>
-      <c r="N8"/>
-    </row>
-    <row r="9" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="A9" s="6"/>
       <c r="C9">
         <v>1000004</v>
@@ -829,29 +865,32 @@
       <c r="E9" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6">
-        <v>100</v>
+      <c r="F9" s="6">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
       </c>
       <c r="H9">
-        <v>10</v>
-      </c>
-      <c r="I9">
         <v>1001</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>41</v>
+      <c r="I9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J9" s="5">
+        <v>2</v>
       </c>
       <c r="K9" s="5">
-        <v>2</v>
-      </c>
-      <c r="L9" s="5">
-        <v>1</v>
-      </c>
-      <c r="M9" s="7"/>
-      <c r="N9"/>
-    </row>
-    <row r="10" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C10">
         <v>1000005</v>
       </c>
@@ -861,29 +900,32 @@
       <c r="E10" t="s">
         <v>13</v>
       </c>
-      <c r="F10"/>
-      <c r="G10" s="6">
-        <v>100</v>
+      <c r="F10" s="6">
+        <v>100</v>
+      </c>
+      <c r="G10">
+        <v>10</v>
       </c>
       <c r="H10">
-        <v>10</v>
-      </c>
-      <c r="I10">
         <v>1001</v>
       </c>
-      <c r="J10" s="5" t="s">
-        <v>41</v>
+      <c r="I10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="5">
+        <v>2</v>
       </c>
       <c r="K10" s="5">
-        <v>2</v>
-      </c>
-      <c r="L10" s="5">
-        <v>1</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10"/>
-    </row>
-    <row r="11" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C11">
         <v>1000006</v>
       </c>
@@ -893,30 +935,33 @@
       <c r="E11" t="s">
         <v>14</v>
       </c>
-      <c r="F11"/>
-      <c r="G11" s="6">
-        <v>100</v>
+      <c r="F11" s="6">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>10</v>
       </c>
       <c r="H11">
-        <v>10</v>
-      </c>
-      <c r="I11">
         <v>1001</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>41</v>
+      <c r="I11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="5">
+        <v>2</v>
       </c>
       <c r="K11" s="5">
-        <v>2</v>
-      </c>
-      <c r="L11" s="5">
-        <v>1</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11"/>
-      <c r="P11"/>
-    </row>
-    <row r="12" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O11"/>
+    </row>
+    <row r="12" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C12">
         <v>1000007</v>
       </c>
@@ -926,29 +971,32 @@
       <c r="E12" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6">
-        <v>100</v>
+      <c r="F12" s="6">
+        <v>100</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
       </c>
       <c r="H12">
-        <v>10</v>
-      </c>
-      <c r="I12">
         <v>1001</v>
       </c>
-      <c r="J12" s="5" t="s">
+      <c r="I12" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="J12" s="5">
+        <v>3</v>
+      </c>
       <c r="K12" s="5">
-        <v>3</v>
-      </c>
-      <c r="L12" s="5">
-        <v>1</v>
-      </c>
-      <c r="M12" s="7"/>
-      <c r="N12"/>
-    </row>
-    <row r="13" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C13">
         <v>1000008</v>
       </c>
@@ -958,28 +1006,32 @@
       <c r="E13" t="s">
         <v>15</v>
       </c>
-      <c r="F13"/>
-      <c r="G13" s="6">
-        <v>100</v>
+      <c r="F13" s="6">
+        <v>100</v>
+      </c>
+      <c r="G13">
+        <v>10</v>
       </c>
       <c r="H13">
-        <v>10</v>
-      </c>
-      <c r="I13">
         <v>1001</v>
       </c>
-      <c r="J13" s="5" t="s">
+      <c r="I13" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="J13" s="5">
+        <v>3</v>
+      </c>
       <c r="K13" s="5">
-        <v>3</v>
-      </c>
-      <c r="L13" s="5">
-        <v>1</v>
-      </c>
-      <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C14">
         <v>1000009</v>
       </c>
@@ -989,28 +1041,32 @@
       <c r="E14" t="s">
         <v>16</v>
       </c>
-      <c r="F14"/>
-      <c r="G14" s="6">
-        <v>100</v>
+      <c r="F14" s="6">
+        <v>100</v>
+      </c>
+      <c r="G14">
+        <v>10</v>
       </c>
       <c r="H14">
-        <v>10</v>
-      </c>
-      <c r="I14">
         <v>1001</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="I14" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="J14" s="5">
+        <v>3</v>
+      </c>
       <c r="K14" s="5">
-        <v>3</v>
-      </c>
-      <c r="L14" s="5">
-        <v>1</v>
-      </c>
-      <c r="M14" s="7"/>
-    </row>
-    <row r="15" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C15">
         <v>1000010</v>
       </c>
@@ -1020,28 +1076,32 @@
       <c r="E15" t="s">
         <v>17</v>
       </c>
-      <c r="F15"/>
-      <c r="G15" s="6">
-        <v>100</v>
+      <c r="F15" s="6">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
       </c>
       <c r="H15">
-        <v>10</v>
-      </c>
-      <c r="I15">
         <v>1001</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="I15" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="J15" s="5">
+        <v>3</v>
+      </c>
       <c r="K15" s="5">
-        <v>3</v>
-      </c>
-      <c r="L15" s="5">
-        <v>1</v>
-      </c>
-      <c r="M15" s="7"/>
-    </row>
-    <row r="16" spans="1:16" ht="15.5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15" x14ac:dyDescent="0.35">
       <c r="C16">
         <v>1000011</v>
       </c>
@@ -1051,28 +1111,32 @@
       <c r="E16" t="s">
         <v>18</v>
       </c>
-      <c r="F16"/>
-      <c r="G16" s="6">
-        <v>100</v>
+      <c r="F16" s="6">
+        <v>100</v>
+      </c>
+      <c r="G16">
+        <v>10</v>
       </c>
       <c r="H16">
-        <v>10</v>
-      </c>
-      <c r="I16">
         <v>1001</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="I16" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
       <c r="K16" s="5">
         <v>1</v>
       </c>
-      <c r="L16" s="5">
-        <v>1</v>
-      </c>
-      <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="L16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C17">
         <v>1000012</v>
       </c>
@@ -1082,28 +1146,32 @@
       <c r="E17" t="s">
         <v>19</v>
       </c>
-      <c r="F17"/>
-      <c r="G17" s="6">
-        <v>100</v>
+      <c r="F17" s="6">
+        <v>100</v>
+      </c>
+      <c r="G17">
+        <v>10</v>
       </c>
       <c r="H17">
-        <v>10</v>
-      </c>
-      <c r="I17">
         <v>1001</v>
       </c>
-      <c r="J17" s="5" t="s">
+      <c r="I17" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
       <c r="K17" s="5">
         <v>1</v>
       </c>
-      <c r="L17" s="5">
-        <v>1</v>
-      </c>
-      <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="L17" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C18">
         <v>1000013</v>
       </c>
@@ -1113,28 +1181,32 @@
       <c r="E18" t="s">
         <v>19</v>
       </c>
-      <c r="F18"/>
-      <c r="G18" s="6">
-        <v>100</v>
+      <c r="F18" s="6">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>10</v>
       </c>
       <c r="H18">
-        <v>10</v>
-      </c>
-      <c r="I18">
         <v>1001</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="I18" s="5" t="s">
         <v>43</v>
       </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
       <c r="K18" s="5">
         <v>1</v>
       </c>
-      <c r="L18" s="5">
-        <v>1</v>
-      </c>
-      <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
+      <c r="L18" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M18" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C19">
         <v>1000014</v>
       </c>
@@ -1144,28 +1216,32 @@
       <c r="E19" t="s">
         <v>20</v>
       </c>
-      <c r="F19"/>
-      <c r="G19" s="6">
-        <v>100</v>
+      <c r="F19" s="6">
+        <v>100</v>
+      </c>
+      <c r="G19">
+        <v>10</v>
       </c>
       <c r="H19">
-        <v>10</v>
-      </c>
-      <c r="I19">
         <v>1002</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="I19" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="J19" s="5">
+        <v>4</v>
+      </c>
       <c r="K19" s="5">
-        <v>4</v>
-      </c>
-      <c r="L19" s="5">
-        <v>1</v>
-      </c>
-      <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C20">
         <v>1000015</v>
       </c>
@@ -1175,28 +1251,32 @@
       <c r="E20" t="s">
         <v>21</v>
       </c>
-      <c r="F20"/>
-      <c r="G20" s="6">
-        <v>100</v>
+      <c r="F20" s="6">
+        <v>100</v>
+      </c>
+      <c r="G20">
+        <v>10</v>
       </c>
       <c r="H20">
-        <v>10</v>
-      </c>
-      <c r="I20">
         <v>1002</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="I20" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="J20" s="5">
+        <v>4</v>
+      </c>
       <c r="K20" s="5">
-        <v>4</v>
-      </c>
-      <c r="L20" s="5">
-        <v>1</v>
-      </c>
-      <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C21">
         <v>1000016</v>
       </c>
@@ -1206,28 +1286,32 @@
       <c r="E21" t="s">
         <v>22</v>
       </c>
-      <c r="F21"/>
-      <c r="G21" s="6">
-        <v>100</v>
+      <c r="F21" s="6">
+        <v>100</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
       </c>
       <c r="H21">
-        <v>10</v>
-      </c>
-      <c r="I21">
         <v>1002</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="I21" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="J21" s="5">
+        <v>4</v>
+      </c>
       <c r="K21" s="5">
-        <v>4</v>
-      </c>
-      <c r="L21" s="5">
-        <v>1</v>
-      </c>
-      <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L21" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C22">
         <v>1000017</v>
       </c>
@@ -1237,28 +1321,32 @@
       <c r="E22" t="s">
         <v>23</v>
       </c>
-      <c r="F22"/>
-      <c r="G22" s="6">
-        <v>100</v>
+      <c r="F22" s="6">
+        <v>100</v>
+      </c>
+      <c r="G22">
+        <v>10</v>
       </c>
       <c r="H22">
-        <v>10</v>
-      </c>
-      <c r="I22">
         <v>1002</v>
       </c>
-      <c r="J22" s="5" t="s">
+      <c r="I22" s="5" t="s">
         <v>40</v>
       </c>
+      <c r="J22" s="5">
+        <v>4</v>
+      </c>
       <c r="K22" s="5">
-        <v>4</v>
-      </c>
-      <c r="L22" s="5">
-        <v>1</v>
-      </c>
-      <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C23">
         <v>1000018</v>
       </c>
@@ -1268,28 +1356,32 @@
       <c r="E23" t="s">
         <v>24</v>
       </c>
-      <c r="F23"/>
-      <c r="G23" s="6">
-        <v>100</v>
+      <c r="F23" s="6">
+        <v>100</v>
+      </c>
+      <c r="G23">
+        <v>10</v>
       </c>
       <c r="H23">
-        <v>10</v>
-      </c>
-      <c r="I23">
         <v>1002</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>41</v>
+      <c r="I23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J23" s="5">
+        <v>2</v>
       </c>
       <c r="K23" s="5">
-        <v>2</v>
-      </c>
-      <c r="L23" s="5">
-        <v>1</v>
-      </c>
-      <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L23" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M23" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C24">
         <v>1000019</v>
       </c>
@@ -1299,28 +1391,32 @@
       <c r="E24" t="s">
         <v>25</v>
       </c>
-      <c r="F24"/>
-      <c r="G24" s="6">
-        <v>100</v>
+      <c r="F24" s="6">
+        <v>100</v>
+      </c>
+      <c r="G24">
+        <v>10</v>
       </c>
       <c r="H24">
-        <v>10</v>
-      </c>
-      <c r="I24">
         <v>1002</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>41</v>
+      <c r="I24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J24" s="5">
+        <v>2</v>
       </c>
       <c r="K24" s="5">
-        <v>2</v>
-      </c>
-      <c r="L24" s="5">
-        <v>1</v>
-      </c>
-      <c r="M24" s="7"/>
-    </row>
-    <row r="25" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L24" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M24" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C25">
         <v>1000020</v>
       </c>
@@ -1330,28 +1426,32 @@
       <c r="E25" t="s">
         <v>26</v>
       </c>
-      <c r="F25"/>
-      <c r="G25" s="6">
-        <v>100</v>
+      <c r="F25" s="6">
+        <v>100</v>
+      </c>
+      <c r="G25">
+        <v>10</v>
       </c>
       <c r="H25">
-        <v>10</v>
-      </c>
-      <c r="I25">
         <v>1002</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>41</v>
+      <c r="I25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="5">
+        <v>2</v>
       </c>
       <c r="K25" s="5">
-        <v>2</v>
-      </c>
-      <c r="L25" s="5">
-        <v>1</v>
-      </c>
-      <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C26">
         <v>1000021</v>
       </c>
@@ -1361,28 +1461,32 @@
       <c r="E26" t="s">
         <v>27</v>
       </c>
-      <c r="F26"/>
-      <c r="G26" s="6">
-        <v>100</v>
+      <c r="F26" s="6">
+        <v>100</v>
+      </c>
+      <c r="G26">
+        <v>10</v>
       </c>
       <c r="H26">
-        <v>10</v>
-      </c>
-      <c r="I26">
         <v>1002</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>41</v>
+      <c r="I26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J26" s="5">
+        <v>2</v>
       </c>
       <c r="K26" s="5">
-        <v>2</v>
-      </c>
-      <c r="L26" s="5">
-        <v>1</v>
-      </c>
-      <c r="M26" s="7"/>
-    </row>
-    <row r="27" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C27">
         <v>1000022</v>
       </c>
@@ -1392,28 +1496,32 @@
       <c r="E27" t="s">
         <v>28</v>
       </c>
-      <c r="F27"/>
-      <c r="G27" s="6">
-        <v>100</v>
+      <c r="F27" s="6">
+        <v>100</v>
+      </c>
+      <c r="G27">
+        <v>10</v>
       </c>
       <c r="H27">
-        <v>10</v>
-      </c>
-      <c r="I27">
         <v>1002</v>
       </c>
-      <c r="J27" s="5" t="s">
-        <v>41</v>
+      <c r="I27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J27" s="5">
+        <v>2</v>
       </c>
       <c r="K27" s="5">
-        <v>2</v>
-      </c>
-      <c r="L27" s="5">
-        <v>1</v>
-      </c>
-      <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L27" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M27" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C28">
         <v>1000023</v>
       </c>
@@ -1423,28 +1531,32 @@
       <c r="E28" t="s">
         <v>29</v>
       </c>
-      <c r="F28"/>
-      <c r="G28" s="6">
-        <v>100</v>
+      <c r="F28" s="6">
+        <v>100</v>
+      </c>
+      <c r="G28">
+        <v>10</v>
       </c>
       <c r="H28">
-        <v>10</v>
-      </c>
-      <c r="I28">
         <v>1002</v>
       </c>
-      <c r="J28" s="5" t="s">
-        <v>41</v>
+      <c r="I28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J28" s="5">
+        <v>2</v>
       </c>
       <c r="K28" s="5">
-        <v>2</v>
-      </c>
-      <c r="L28" s="5">
-        <v>1</v>
-      </c>
-      <c r="M28" s="7"/>
-    </row>
-    <row r="29" spans="3:13" ht="15.5" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L28" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M28" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" ht="15" x14ac:dyDescent="0.35">
       <c r="C29">
         <v>1000024</v>
       </c>
@@ -1454,35 +1566,39 @@
       <c r="E29" t="s">
         <v>29</v>
       </c>
-      <c r="F29"/>
-      <c r="G29" s="6">
-        <v>100</v>
+      <c r="F29" s="6">
+        <v>100</v>
+      </c>
+      <c r="G29">
+        <v>10</v>
       </c>
       <c r="H29">
-        <v>10</v>
-      </c>
-      <c r="I29">
         <v>1002</v>
       </c>
-      <c r="J29" s="5" t="s">
-        <v>41</v>
+      <c r="I29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J29" s="5">
+        <v>2</v>
       </c>
       <c r="K29" s="5">
-        <v>2</v>
-      </c>
-      <c r="L29" s="5">
-        <v>1</v>
-      </c>
-      <c r="M29" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="30" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
       <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
+      <c r="L30" s="5"/>
     </row>
     <row r="31" spans="3:13" x14ac:dyDescent="0.35">
       <c r="C31" s="5"/>

--- a/Excel/WeaponsConfig.xlsx
+++ b/Excel/WeaponsConfig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\ET-EUI\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{713F39D2-FE30-4635-AD1B-AD5B85FE7340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE789276-B0C7-4341-B439-1BCD025A5211}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WeaponConfig" sheetId="1" r:id="rId1"/>
@@ -728,8 +728,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:L68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6:K68"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13" x14ac:dyDescent="0.35"/>
@@ -857,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="H6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>44</v>
@@ -887,7 +887,7 @@
         <v>4</v>
       </c>
       <c r="H7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>44</v>
@@ -917,7 +917,7 @@
         <v>4</v>
       </c>
       <c r="H8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>44</v>
